--- a/exceltocsv/public/reports/employee_dtr/Bernardo,Gianilla Mae.xlsx
+++ b/exceltocsv/public/reports/employee_dtr/Bernardo,Gianilla Mae.xlsx
@@ -80,7 +80,7 @@
     <t>18:30:00</t>
   </si>
   <si>
-    <t>" ~OT Petron Live Implementation EFG Marketing ~OB Others|Petron Live Implementation - EFG Marketing San Pablo Laguna May 8, 9, and 11.|"</t>
+    <t>" ~OT ~ = Petron Live Implementation EFG Marketing ~OB Others|Petron Live Implementation - EFG Marketing San Pablo Laguna May 8, 9, and 11.| R "</t>
   </si>
   <si>
     <t>05-10-2015</t>
@@ -89,7 +89,7 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>" ~OB Others|Petron Live Implementation - EFG Marketing San Pablo Laguna May 8, 9, and 11.|"</t>
+    <t>" ~OB Others|Petron Live Implementation - EFG Marketing San Pablo Laguna May 8, 9, and 11.| R "</t>
   </si>
   <si>
     <t>05-11-2015</t>
@@ -98,7 +98,7 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>" ~OT Petron Live Implementation - San Pablo Laguna ~OB Others|Petron Live Implementation - EFG Marketing San Pablo Laguna May 8, 9, and 11.|"</t>
+    <t>" ~OT ~ = Petron Live Implementation - San Pablo Laguna ~OB Others|Petron Live Implementation - EFG Marketing San Pablo Laguna May 8, 9, and 11.| R "</t>
   </si>
   <si>
     <t>05-12-2015</t>
@@ -110,7 +110,7 @@
     <t>11:39:00</t>
   </si>
   <si>
-    <t>" ~OB Others|Petron Live Implementation - BMF Gasul May 13, 14 and 15.  May 12 - Transportation from Manila to Dagupan|"</t>
+    <t>" ~OB Others|Petron Live Implementation - BMF Gasul May 13, 14 and 15.  May 12 - Transportation from Manila to Dagupan| R "</t>
   </si>
   <si>
     <t>05-13-2015</t>
@@ -131,13 +131,13 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>" ~OT Petron Live Implementation - BMF Gasul, Dagupan City ~OB Others|Petron Live Implementation - BMF Gasul May 13, 14 and 15.  May 12 - Transportation from Manila to Dagupan|"</t>
+    <t>" ~OT ~ = Petron Live Implementation - BMF Gasul, Dagupan City ~OB Others|Petron Live Implementation - BMF Gasul May 13, 14 and 15.  May 12 - Transportation from Manila to Dagupan| R "</t>
   </si>
   <si>
     <t>05-16-2015</t>
   </si>
   <si>
-    <t>" ~OT Petron Live Implementation - BMF Gasul, Dagupan City"</t>
+    <t>" ~OT ~ = Petron Live Implementation - BMF Gasul, Dagupan City"</t>
   </si>
   <si>
     <t>05-17-2015</t>
